--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B7046E-2191-4F1A-9B67-C72B5728704E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -401,19 +402,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND BonusType =</t>
+    <t>findDupFirst</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>findDupFirst</t>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND BonusType = ,AND WorkMonth =</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -619,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,10 +633,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -647,9 +648,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -662,9 +660,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,50 +681,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -749,13 +720,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 2 2" xfId="5"/>
-    <cellStyle name="一般 2 2 3" xfId="7"/>
-    <cellStyle name="一般 2 3" xfId="2"/>
-    <cellStyle name="一般 2 4" xfId="4"/>
-    <cellStyle name="一般 2 5" xfId="6"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 2 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,6 +817,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -881,6 +869,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1056,29 +1061,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="16" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="14" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="13" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
@@ -1089,85 +1094,85 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="41" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="24" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="38" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="38" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+      <c r="D7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1186,485 +1191,482 @@
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="37">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="37">
+      <c r="E9" s="26"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="26">
         <v>8</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="37">
+      <c r="F10" s="19"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <f t="shared" ref="A11:A15" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="26">
         <v>8</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="37">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="26">
         <v>7</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="37">
+      <c r="F12" s="19"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="26">
         <v>3</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="37">
+      <c r="F13" s="19"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="26">
         <v>3</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="162">
-      <c r="A15" s="37">
+    <row r="15" spans="1:7" ht="162" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="26">
         <v>1</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="37">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
         <f t="shared" ref="A16:A31" si="1">A15+1</f>
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="26">
         <v>6</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="37">
+      <c r="F16" s="19"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="26">
         <v>5</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="33" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="37">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="26">
         <v>1</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="33" t="s">
+      <c r="F18"/>
+      <c r="G18" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="37">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="26">
         <v>14</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="19">
         <v>2</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="37">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="26">
         <v>14</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
         <v>2</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="37">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="26">
         <v>8</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="37">
+      <c r="F21" s="19"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="26">
         <v>6</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="37">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="26">
         <v>5</v>
       </c>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="37">
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>50</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:7" ht="32.4">
-      <c r="A25" s="37">
+      <c r="F24" s="19"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>1</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="37">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>8</v>
       </c>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" ht="32.4">
-      <c r="A27" s="37">
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="26">
         <v>1</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="30" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="37">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="37">
+      <c r="E28" s="26"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="26">
         <v>6</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="37">
+      <c r="F29" s="19"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="37">
+      <c r="E30" s="26"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="26">
         <v>6</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="25"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1683,15 +1685,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.77734375" style="1" customWidth="1"/>
@@ -1699,7 +1701,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -1729,12 +1731,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B7046E-2191-4F1A-9B67-C72B5728704E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D2D4D2-3EA9-43EC-978C-05CA2ED5C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -371,6 +371,42 @@
   </si>
   <si>
     <t>撥款日/追回日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfRewardMedia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusDate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,BormNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDupFirst</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND BonusType = ,AND WorkMonth =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BranchNo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位別</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-06 Wei新增</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -382,32 +418,24 @@
 5:協辦獎金(L5511寫入)
 6:專業獎勵金(L5407，初階授信通過時寫入，只寫一次)
 7:加碼獎金(L5512寫入)
-(依照LN270檔-獎勵金發放檔)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PfRewardMedia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BonusDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,BormNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findDupFirst</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND BonusType = ,AND WorkMonth =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+(依照LN270檔-獎勵金發放檔)
+99:其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄件者： 陳瀅如 經理 &lt;juliechen@skl.com.tw&gt;
+2023年9月7日 下午3:15
+主旨： FW: 業績獎金媒體檔 轉換問題
+珮琪回覆如下
+原先1~6的獎金類別就是我們整理後提供的，所以智偉的問題應該只有0跟8要怎麼處理，
+類別0的有44筆，類別8的有3筆，判斷可能為早期使用者新增的發放資料，建議可轉成99其他。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-07 Wei
+欄位放大為2碼
+增加代碼99:其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -519,7 +547,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +738,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -742,9 +800,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -782,9 +840,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,26 +875,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,26 +910,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1062,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1076,16 +1100,17 @@
     <col min="4" max="4" width="25.33203125" style="14" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="6"/>
+    <col min="8" max="8" width="59.21875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>66</v>
@@ -1094,9 +1119,9 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1107,11 +1132,11 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="10" t="s">
         <v>62</v>
       </c>
@@ -1124,22 +1149,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
@@ -1148,31 +1173,31 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="4"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
       <c r="E7" s="4"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>1</v>
       </c>
@@ -1212,13 +1237,13 @@
       <c r="F9" s="19"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>70</v>
@@ -1232,7 +1257,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <f t="shared" ref="A11:A15" si="0">A10+1</f>
         <v>3</v>
@@ -1254,7 +1279,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1274,7 +1299,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1294,7 +1319,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1316,7 +1341,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="162" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1330,17 +1355,23 @@
       <c r="D15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="26">
-        <v>1</v>
+      <c r="E15" s="34">
+        <v>2</v>
       </c>
       <c r="F15" s="21"/>
-      <c r="G15" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G15" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A31" si="1">A15+1</f>
+        <f t="shared" ref="A16:A32" si="1">A15+1</f>
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -1358,7 +1389,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1380,7 +1411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1402,7 +1433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1426,7 +1457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1450,7 +1481,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1470,7 +1501,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1491,7 +1522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1510,7 +1541,7 @@
       </c>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1530,7 +1561,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1551,13 +1582,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>67</v>
@@ -1570,7 +1601,7 @@
       </c>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1592,7 +1623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1610,7 +1641,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1630,7 +1661,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1648,7 +1679,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1667,6 +1698,28 @@
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="31">
+        <v>4</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="H32" s="32" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1688,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -1733,10 +1786,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D2D4D2-3EA9-43EC-978C-05CA2ED5C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E49F564-950E-4EE8-A433-0C270B217FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -262,15 +258,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>BonusNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>系統序號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>BonusNo</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -320,10 +308,6 @@
   <si>
     <t>findWorkMonth</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkMonth,BonusNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>WorkMonth</t>
@@ -436,6 +420,21 @@
 欄位放大為2碼
 增加代碼99:其他</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkMonth,LogNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1110,10 +1109,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -1138,7 +1137,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -1146,7 +1145,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1166,7 +1165,7 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="4"/>
@@ -1179,7 +1178,7 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="4"/>
@@ -1202,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>12</v>
@@ -1225,13 +1224,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="19"/>
@@ -1243,10 +1242,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>20</v>
@@ -1263,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>20</v>
@@ -1276,7 +1275,7 @@
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
@@ -1285,10 +1284,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>18</v>
@@ -1305,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>18</v>
@@ -1325,10 +1324,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>18</v>
@@ -1338,7 +1337,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="178.2" x14ac:dyDescent="0.3">
@@ -1347,26 +1346,26 @@
         <v>7</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="34">
         <v>2</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
@@ -1375,13 +1374,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="26">
         <v>6</v>
@@ -1395,20 +1394,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="26">
         <v>5</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
@@ -1417,20 +1416,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="D18" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="26">
         <v>1</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
@@ -1439,13 +1438,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="26">
         <v>14</v>
@@ -1454,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
@@ -1463,13 +1462,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="26">
         <v>14</v>
@@ -1478,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
@@ -1487,13 +1486,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="26">
         <v>8</v>
@@ -1507,10 +1506,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>18</v>
@@ -1519,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
@@ -1531,7 +1530,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>18</v>
@@ -1547,13 +1546,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="19">
         <v>50</v>
@@ -1567,10 +1566,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>18</v>
@@ -1579,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
@@ -1588,13 +1587,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="19">
         <v>8</v>
@@ -1607,20 +1606,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="26">
         <v>1</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
@@ -1635,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="19"/>
@@ -1647,13 +1646,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="E29" s="26">
         <v>6</v>
@@ -1667,13 +1666,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="19"/>
@@ -1685,13 +1684,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="D31" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
@@ -1705,20 +1704,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="31">
         <v>4</v>
       </c>
       <c r="F32" s="31"/>
       <c r="H32" s="32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1742,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1767,29 +1766,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E49F564-950E-4EE8-A433-0C270B217FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -392,6 +391,36 @@
   <si>
     <t>2023-09-06 Wei新增</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄件者： 陳瀅如 經理 &lt;juliechen@skl.com.tw&gt;
+2023年9月7日 下午3:15
+主旨： FW: 業績獎金媒體檔 轉換問題
+珮琪回覆如下
+原先1~6的獎金類別就是我們整理後提供的，所以智偉的問題應該只有0跟8要怎麼處理，
+類別0的有44筆，類別8的有3筆，判斷可能為早期使用者新增的發放資料，建議可轉成99其他。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-07 Wei
+欄位放大為2碼
+增加代碼99:其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkMonth,LogNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
   <si>
     <t>CdCode.BonusType
@@ -400,48 +429,18 @@
 3:晤談一人員津貼(目前沒有)
 4:晤談二人員津貼(目前沒有)
 5:協辦獎金(L5511寫入)
-6:專業獎勵金(L5407，初階授信通過時寫入，只寫一次)
+6:專業獎勵金(目前沒有)
 7:加碼獎金(L5512寫入)
 (依照LN270檔-獎勵金發放檔)
-99:其他</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄件者： 陳瀅如 經理 &lt;juliechen@skl.com.tw&gt;
-2023年9月7日 下午3:15
-主旨： FW: 業績獎金媒體檔 轉換問題
-珮琪回覆如下
-原先1~6的獎金類別就是我們整理後提供的，所以智偉的問題應該只有0跟8要怎麼處理，
-類別0的有44筆，類別8的有3筆，判斷可能為早期使用者新增的發放資料，建議可轉成99其他。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-09-07 Wei
-欄位放大為2碼
-增加代碼99:其他</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkMonth,LogNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
+99:其他(L5503寫入)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -777,13 +776,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="一般 2 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 2 2" xfId="5"/>
+    <cellStyle name="一般 2 2 3" xfId="7"/>
+    <cellStyle name="一般 2 3" xfId="2"/>
+    <cellStyle name="一般 2 4" xfId="4"/>
+    <cellStyle name="一般 2 5" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -799,9 +798,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -839,9 +838,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,7 +875,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,7 +910,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1084,14 +1083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="13" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="13" customWidth="1"/>
@@ -1103,7 +1102,7 @@
     <col min="9" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1117,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="7" t="s">
@@ -1131,13 +1130,13 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -1148,7 +1147,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
@@ -1159,20 +1158,20 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="4"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1184,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1195,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1219,12 +1218,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="27">
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>61</v>
@@ -1236,7 +1235,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="27">
         <f>A9+1</f>
         <v>2</v>
@@ -1256,7 +1255,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="27">
         <f t="shared" ref="A11:A15" si="0">A10+1</f>
         <v>3</v>
@@ -1278,7 +1277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1298,7 +1297,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1318,7 +1317,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1340,7 +1339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="162">
       <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1359,16 +1358,16 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="I15" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="27">
         <f t="shared" ref="A16:A32" si="1">A15+1</f>
         <v>8</v>
@@ -1388,7 +1387,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1410,7 +1409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1432,7 +1431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1456,7 +1455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1480,7 +1479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1500,7 +1499,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1521,7 +1520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1540,7 +1539,7 @@
       </c>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1560,7 +1559,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="32.4">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1581,7 +1580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1600,7 +1599,7 @@
       </c>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="32.4">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1622,7 +1621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1634,13 +1633,13 @@
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="19"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1660,7 +1659,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1672,13 +1671,13 @@
         <v>27</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="19"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1698,7 +1697,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1737,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1745,7 +1744,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="24.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.77734375" style="1" customWidth="1"/>
@@ -1753,7 +1752,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
